--- a/biology/Zoologie/Gnorimus/Gnorimus.xlsx
+++ b/biology/Zoologie/Gnorimus/Gnorimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnorimus est un genre d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Cetoniinae. Certains auteurs, tels que Pierre Tauzin, proposent de remplacer Gnorimus par Aleurosticus, genre ayant l'antériorité car créé par Kirby en 1827.
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves, de type ver blanc, vivent généralement dans les cavités des vieux arbres. Les adultes sont volontiers floricoles.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gnorimus decempunctatus Helfer, 1834
 Gnorimus nobilis (Linnaeus, 1758)
@@ -574,7 +590,9 @@
           <t>Espèces de l'Ouest Paléarctique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gnorimus armeniacus Moser, 1902
 Gnorimus baborensis Bedel, 1919
@@ -608,9 +626,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 août 2014)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 août 2014) :
 Gnorimus armeniacus
 Gnorimus baborensis
 Gnorimus bartelsi
@@ -620,7 +640,7 @@
 Gnorimus subcostatus
 Gnorimus subopacus
 Gnorimus variabilis
-Selon NCBI  (29 août 2014)[2] :
+Selon NCBI  (29 août 2014) :
 Gnorimus decempunctatus
 Gnorimus nobilis
 Gnorimus variabilis</t>
